--- a/Markov Model.xlsx
+++ b/Markov Model.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geniu\Documents\CBB-Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA2924-A0B3-4D40-93D2-8782A02B7263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45499A5C-BAD2-45CF-B558-A6D97EA5F106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mk2" sheetId="1" r:id="rId1"/>
+    <sheet name="Mk1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>Current State</t>
   </si>
@@ -109,6 +110,27 @@
   </si>
   <si>
     <t>ShotRatio = 2PtA/3PtA</t>
+  </si>
+  <si>
+    <t>Home FT Shot</t>
+  </si>
+  <si>
+    <t>Away FT Shot</t>
+  </si>
+  <si>
+    <t>Turnover%: Arithmetic mean of turnover rate and opponent's opponent turnover rate</t>
+  </si>
+  <si>
+    <t>Turnover%</t>
+  </si>
+  <si>
+    <t>FTRate</t>
+  </si>
+  <si>
+    <t>FTRate = (FTA+OOFTA)/(4*AdjT)</t>
+  </si>
+  <si>
+    <t>(1-Turnover%-FTRate)/(ShotRatio+1)</t>
   </si>
 </sst>
 </file>
@@ -429,10 +451,776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A998A-F90B-4867-A77E-A2973E445174}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
